--- a/biology/Médecine/1603_en_santé_et_médecine/1603_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1603_en_santé_et_médecine/1603_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1603_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1603_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1603 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1603_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1603_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Juillet : en  Norvège, « un brevet royal attribue au médecin d’origine danoise Villads Nielsen (no) un revenu annuel à vie sur les fonds publics pour fournir des services médicaux aux habitants de Bergen, la plus grande ville de Norvège à l’époque[1] ».
-1601-1603 : famine en Russie, pendant laquelle cent vingt-sept mille corps sont enterrés dans des fosses communes pour la seule ville de Moscou, et qui tue près de deux millions de personnes, soit un tiers de la population russe[2].
-1603-1604 : à Londres, la peste fait environ trente mille victimes[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Juillet : en  Norvège, « un brevet royal attribue au médecin d’origine danoise Villads Nielsen (no) un revenu annuel à vie sur les fonds publics pour fournir des services médicaux aux habitants de Bergen, la plus grande ville de Norvège à l’époque ».
+1601-1603 : famine en Russie, pendant laquelle cent vingt-sept mille corps sont enterrés dans des fosses communes pour la seule ville de Moscou, et qui tue près de deux millions de personnes, soit un tiers de la population russe.
+1603-1604 : à Londres, la peste fait environ trente mille victimes.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1603_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1603_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Girolamo Fabrizi d'Acquapendente (1533-1619) fait paraître son traité De venarum ostiolis où il décrit les valvules situées à l'intérieur des veines, et qui est une des publications qui conduiront William Harvey, élève de l'auteur, à la découverte de la circulation sanguine en 1628[4].
-Joseph du Chesne (1546-1609[5]) publie son traité De priscorum philosophorum verae medicinae materia[6].
-Thomas Lodge (1558 ?-1625) publie A Treatise of the plague, « traduction d'un ouvrage médical français[7],[8] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Girolamo Fabrizi d'Acquapendente (1533-1619) fait paraître son traité De venarum ostiolis où il décrit les valvules situées à l'intérieur des veines, et qui est une des publications qui conduiront William Harvey, élève de l'auteur, à la découverte de la circulation sanguine en 1628.
+Joseph du Chesne (1546-1609) publie son traité De priscorum philosophorum verae medicinae materia.
+Thomas Lodge (1558 ?-1625) publie A Treatise of the plague, « traduction d'un ouvrage médical français, ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1603_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1603_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15 septembre : Jan Jonston (mort en 1675), médecin polonais auteur d'une encyclopédie zoologique[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 septembre : Jan Jonston (mort en 1675), médecin polonais auteur d'une encyclopédie zoologique.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1603_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1603_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers juin :  Barthélemy Cabrol (né vers 1529), chirurgien anatomiste, « premier titulaire à l'emploi de démonstrateur royal d'anatomie auprès de l'université de médecine de Montpellier par un édit de création d'Henri IV[10] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers juin :  Barthélemy Cabrol (né vers 1529), chirurgien anatomiste, « premier titulaire à l'emploi de démonstrateur royal d'anatomie auprès de l'université de médecine de Montpellier par un édit de création d'Henri IV ».
 10 décembre : William Gilbert (né en 1544), physicien anglais, médecin d’Élisabeth Ire et de Jacques Ier.</t>
         </is>
       </c>
